--- a/table_model____spi-6__lasso_($\beta_=_$0.0).xlsx
+++ b/table_model____spi-6__lasso_($\beta_=_$0.0).xlsx
@@ -690,10 +690,10 @@
         <v>1.12703818</v>
       </c>
       <c r="B2">
-        <v>1.476568253071385</v>
+        <v>1.476566863625852</v>
       </c>
       <c r="C2">
-        <v>1.479029664979361</v>
+        <v>1.488299811601499</v>
       </c>
       <c r="D2">
         <v>1.478919932018117</v>
@@ -845,10 +845,10 @@
         <v>1.14030363</v>
       </c>
       <c r="B3">
-        <v>1.125216645685092</v>
+        <v>1.12521600788694</v>
       </c>
       <c r="C3">
-        <v>1.094256324905278</v>
+        <v>1.119892105201988</v>
       </c>
       <c r="D3">
         <v>1.094110367084782</v>
@@ -1000,10 +1000,10 @@
         <v>0.681304577</v>
       </c>
       <c r="B4">
-        <v>0.3669396875328548</v>
+        <v>0.3669396625807685</v>
       </c>
       <c r="C4">
-        <v>0.3523315300712621</v>
+        <v>0.35916574637883</v>
       </c>
       <c r="D4">
         <v>0.3523075601599116</v>
@@ -1155,10 +1155,10 @@
         <v>0.408251684</v>
       </c>
       <c r="B5">
-        <v>0.5728395707227987</v>
+        <v>0.5728403148610937</v>
       </c>
       <c r="C5">
-        <v>0.590401557232433</v>
+        <v>0.5305400233729155</v>
       </c>
       <c r="D5">
         <v>0.5905222601844279</v>
@@ -1310,10 +1310,10 @@
         <v>-0.107509787</v>
       </c>
       <c r="B6">
-        <v>-0.5869987469374356</v>
+        <v>-0.5869989643392417</v>
       </c>
       <c r="C6">
-        <v>-0.6393498498103092</v>
+        <v>-0.5888971910586698</v>
       </c>
       <c r="D6">
         <v>-0.6394638431990418</v>
@@ -1465,10 +1465,10 @@
         <v>-0.178373341</v>
       </c>
       <c r="B7">
-        <v>-0.6606766761545788</v>
+        <v>-0.6606783333796535</v>
       </c>
       <c r="C7">
-        <v>-0.701466396429659</v>
+        <v>-0.6434550990751681</v>
       </c>
       <c r="D7">
         <v>-0.7016227103299523</v>
@@ -1620,10 +1620,10 @@
         <v>0.686567453</v>
       </c>
       <c r="B8">
-        <v>0.3564058005096094</v>
+        <v>0.3564061593392533</v>
       </c>
       <c r="C8">
-        <v>0.3518100518794124</v>
+        <v>0.3384812132345778</v>
       </c>
       <c r="D8">
         <v>0.3518252759456312</v>
@@ -1775,10 +1775,10 @@
         <v>0.231220732</v>
       </c>
       <c r="B9">
-        <v>0.1399414490420198</v>
+        <v>0.1399408652566037</v>
       </c>
       <c r="C9">
-        <v>0.1435100322703642</v>
+        <v>0.1572100530008657</v>
       </c>
       <c r="D9">
         <v>0.1434746689406801</v>
@@ -1930,10 +1930,10 @@
         <v>-0.017236558</v>
       </c>
       <c r="B10">
-        <v>0.007398562131218009</v>
+        <v>0.007397695608183952</v>
       </c>
       <c r="C10">
-        <v>0.008491994784626025</v>
+        <v>0.02863167766393872</v>
       </c>
       <c r="D10">
         <v>0.008446147381622507</v>
@@ -2085,10 +2085,10 @@
         <v>-0.7497877120000001</v>
       </c>
       <c r="B11">
-        <v>-0.2950674920443779</v>
+        <v>-0.2950682003433777</v>
       </c>
       <c r="C11">
-        <v>-0.3172265144457745</v>
+        <v>-0.2737373983435299</v>
       </c>
       <c r="D11">
         <v>-0.3173171969821997</v>
@@ -2240,10 +2240,10 @@
         <v>-0.245343768</v>
       </c>
       <c r="B12">
-        <v>0.251160569381839</v>
+        <v>0.2511606755907935</v>
       </c>
       <c r="C12">
-        <v>0.2443630007933187</v>
+        <v>0.2376409393979212</v>
       </c>
       <c r="D12">
         <v>0.2443551557508397</v>
@@ -2395,10 +2395,10 @@
         <v>-0.33157628</v>
       </c>
       <c r="B13">
-        <v>-0.01927250907778836</v>
+        <v>-0.01927273217126431</v>
       </c>
       <c r="C13">
-        <v>-0.03416028826421973</v>
+        <v>-0.01373790141975796</v>
       </c>
       <c r="D13">
         <v>-0.03421755114939107</v>
@@ -2550,10 +2550,10 @@
         <v>-1.121163328</v>
       </c>
       <c r="B14">
-        <v>-1.062959200810875</v>
+        <v>-1.062960183681898</v>
       </c>
       <c r="C14">
-        <v>-1.112739503101171</v>
+        <v>-1.073139186679265</v>
       </c>
       <c r="D14">
         <v>-1.112919450732153</v>
@@ -2705,10 +2705,10 @@
         <v>-0.072537281</v>
       </c>
       <c r="B15">
-        <v>0.03906234449402715</v>
+        <v>0.03906196917675644</v>
       </c>
       <c r="C15">
-        <v>0.02919400417374951</v>
+        <v>0.04580940804576997</v>
       </c>
       <c r="D15">
         <v>0.02915161898759945</v>
@@ -2860,10 +2860,10 @@
         <v>0.309041204</v>
       </c>
       <c r="B16">
-        <v>0.4348281997777027</v>
+        <v>0.4348273140799922</v>
       </c>
       <c r="C16">
-        <v>0.4445103951468574</v>
+        <v>0.4660423820410735</v>
       </c>
       <c r="D16">
         <v>0.4444783473191772</v>
@@ -3015,10 +3015,10 @@
         <v>0.418836013</v>
       </c>
       <c r="B17">
-        <v>0.3418629938794128</v>
+        <v>0.3418621158163498</v>
       </c>
       <c r="C17">
-        <v>0.3502088423725433</v>
+        <v>0.3771471243115379</v>
       </c>
       <c r="D17">
         <v>0.3501643234573975</v>
@@ -3170,10 +3170,10 @@
         <v>-0.260493354</v>
       </c>
       <c r="B18">
-        <v>-0.5332030642164729</v>
+        <v>-0.5332046477338623</v>
       </c>
       <c r="C18">
-        <v>-0.5441328883798409</v>
+        <v>-0.4993338054099349</v>
       </c>
       <c r="D18">
         <v>-0.5442408720420118</v>
@@ -3325,10 +3325,10 @@
         <v>-0.054560058</v>
       </c>
       <c r="B19">
-        <v>-0.08326827853319378</v>
+        <v>-0.08326905608072371</v>
       </c>
       <c r="C19">
-        <v>-0.09540087546220116</v>
+        <v>-0.06952596244861921</v>
       </c>
       <c r="D19">
         <v>-0.09545873038001064</v>
@@ -3480,10 +3480,10 @@
         <v>-0.134306691</v>
       </c>
       <c r="B20">
-        <v>-0.2152532639030875</v>
+        <v>-0.2152540339381832</v>
       </c>
       <c r="C20">
-        <v>-0.2329281402837971</v>
+        <v>-0.1818293456796672</v>
       </c>
       <c r="D20">
         <v>-0.2329976838600496</v>
@@ -3635,10 +3635,10 @@
         <v>-1.373687226</v>
       </c>
       <c r="B21">
-        <v>-1.297324587971885</v>
+        <v>-1.297323631575228</v>
       </c>
       <c r="C21">
-        <v>-1.374807589387322</v>
+        <v>-1.371036394592098</v>
       </c>
       <c r="D21">
         <v>-1.374869124999467</v>
@@ -3790,10 +3790,10 @@
         <v>-2.021776558</v>
       </c>
       <c r="B22">
-        <v>-1.806967175645213</v>
+        <v>-1.8069685151887</v>
       </c>
       <c r="C22">
-        <v>-1.895223262949079</v>
+        <v>-1.829351095964509</v>
       </c>
       <c r="D22">
         <v>-1.895458465590615</v>
@@ -3945,10 +3945,10 @@
         <v>-2.768247153</v>
       </c>
       <c r="B23">
-        <v>-2.181368276335356</v>
+        <v>-2.181370699409602</v>
       </c>
       <c r="C23">
-        <v>-2.320117913881578</v>
+        <v>-2.215653765539467</v>
       </c>
       <c r="D23">
         <v>-2.320546460841356</v>
@@ -4100,10 +4100,10 @@
         <v>-1.617556037</v>
       </c>
       <c r="B24">
-        <v>-1.389561436483665</v>
+        <v>-1.389566747528459</v>
       </c>
       <c r="C24">
-        <v>-1.440658270751101</v>
+        <v>-1.276181817382963</v>
       </c>
       <c r="D24">
         <v>-1.441105714748306</v>
@@ -4255,10 +4255,10 @@
         <v>-1.780869488</v>
       </c>
       <c r="B25">
-        <v>-1.908439518230344</v>
+        <v>-1.908443933122775</v>
       </c>
       <c r="C25">
-        <v>-2.01749562951185</v>
+        <v>-1.911654102357302</v>
       </c>
       <c r="D25">
         <v>-2.017999214692849</v>
@@ -4410,10 +4410,10 @@
         <v>-1.300452484</v>
       </c>
       <c r="B26">
-        <v>-1.541225336084852</v>
+        <v>-1.541229894120162</v>
       </c>
       <c r="C26">
-        <v>-1.604965756169593</v>
+        <v>-1.446096275617428</v>
       </c>
       <c r="D26">
         <v>-1.605362636321074</v>
@@ -4565,10 +4565,10 @@
         <v>-1.77117984</v>
       </c>
       <c r="B27">
-        <v>-1.75651883895689</v>
+        <v>-1.75652425318304</v>
       </c>
       <c r="C27">
-        <v>-1.806251416473315</v>
+        <v>-1.68787576505008</v>
       </c>
       <c r="D27">
         <v>-1.806680055591311</v>
@@ -4720,10 +4720,10 @@
         <v>-1.377645584</v>
       </c>
       <c r="B28">
-        <v>-1.351475680888562</v>
+        <v>-1.351480211397545</v>
       </c>
       <c r="C28">
-        <v>-1.394348096055771</v>
+        <v>-1.2967598048962</v>
       </c>
       <c r="D28">
         <v>-1.394754272076883</v>
@@ -4875,10 +4875,10 @@
         <v>-0.193821668</v>
       </c>
       <c r="B29">
-        <v>-0.02023269829158336</v>
+        <v>-0.02023281940193289</v>
       </c>
       <c r="C29">
-        <v>-0.03742021505954565</v>
+        <v>-0.0273814229895061</v>
       </c>
       <c r="D29">
         <v>-0.03747521320581301</v>
@@ -5030,10 +5030,10 @@
         <v>-0.135364639</v>
       </c>
       <c r="B30">
-        <v>0.4914481637940297</v>
+        <v>0.4914485651265298</v>
       </c>
       <c r="C30">
-        <v>0.4875542096500398</v>
+        <v>0.4959672388100268</v>
       </c>
       <c r="D30">
         <v>0.4875682264167522</v>
@@ -5185,10 +5185,10 @@
         <v>-0.360498282</v>
       </c>
       <c r="B31">
-        <v>0.2247013582034718</v>
+        <v>0.2247016941165427</v>
       </c>
       <c r="C31">
-        <v>0.2140715304503604</v>
+        <v>0.2032159024474373</v>
       </c>
       <c r="D31">
         <v>0.2140581480155379</v>
@@ -5340,10 +5340,10 @@
         <v>-0.859042275</v>
       </c>
       <c r="B32">
-        <v>-0.1545430452820368</v>
+        <v>-0.1545431022429455</v>
       </c>
       <c r="C32">
-        <v>-0.1746562183391158</v>
+        <v>-0.1671716979816777</v>
       </c>
       <c r="D32">
         <v>-0.174732688991534</v>
@@ -5495,10 +5495,10 @@
         <v>-0.149240493</v>
       </c>
       <c r="B33">
-        <v>0.3017345251054011</v>
+        <v>0.301734771814095</v>
       </c>
       <c r="C33">
-        <v>0.2956725882914374</v>
+        <v>0.2768922049937208</v>
       </c>
       <c r="D33">
         <v>0.2956748297394162</v>
@@ -5650,10 +5650,10 @@
         <v>-0.236175245</v>
       </c>
       <c r="B34">
-        <v>0.1791735579872242</v>
+        <v>0.1791732100683069</v>
       </c>
       <c r="C34">
-        <v>0.1767724433266048</v>
+        <v>0.2116982088645569</v>
       </c>
       <c r="D34">
         <v>0.1767456492299539</v>
@@ -5805,10 +5805,10 @@
         <v>-1.022433007</v>
       </c>
       <c r="B35">
-        <v>-0.5722531354913241</v>
+        <v>-0.5722541136977517</v>
       </c>
       <c r="C35">
-        <v>-0.5953714731303423</v>
+        <v>-0.5240410467311406</v>
       </c>
       <c r="D35">
         <v>-0.5954724902172526</v>
@@ -5960,10 +5960,10 @@
         <v>-1.53558335</v>
       </c>
       <c r="B36">
-        <v>-1.226439238922682</v>
+        <v>-1.226438872640323</v>
       </c>
       <c r="C36">
-        <v>-1.280356761580522</v>
+        <v>-1.261163305384508</v>
       </c>
       <c r="D36">
         <v>-1.280433162311344</v>
@@ -6115,10 +6115,10 @@
         <v>-1.348318065</v>
       </c>
       <c r="B37">
-        <v>-1.061577589638153</v>
+        <v>-1.061577012229244</v>
       </c>
       <c r="C37">
-        <v>-1.113363568632661</v>
+        <v>-1.114985138979105</v>
       </c>
       <c r="D37">
         <v>-1.113409821077963</v>
@@ -6270,10 +6270,10 @@
         <v>-0.915745502</v>
       </c>
       <c r="B38">
-        <v>-0.8920267480990023</v>
+        <v>-0.892027404347419</v>
       </c>
       <c r="C38">
-        <v>-0.9320689095585439</v>
+        <v>-0.8421827116166802</v>
       </c>
       <c r="D38">
         <v>-0.9321814038702803</v>
@@ -6425,10 +6425,10 @@
         <v>-0.422632353</v>
       </c>
       <c r="B39">
-        <v>-0.5488122347556257</v>
+        <v>-0.5488138072689415</v>
       </c>
       <c r="C39">
-        <v>-0.5599962400225167</v>
+        <v>-0.489981071290434</v>
       </c>
       <c r="D39">
         <v>-0.5601099501560761</v>
@@ -6580,10 +6580,10 @@
         <v>-0.350518731</v>
       </c>
       <c r="B40">
-        <v>-0.3831475462456171</v>
+        <v>-0.3831487964144895</v>
       </c>
       <c r="C40">
-        <v>-0.3848144746787259</v>
+        <v>-0.3632730073551369</v>
       </c>
       <c r="D40">
         <v>-0.3848881883788788</v>
@@ -6735,10 +6735,10 @@
         <v>-0.128190664</v>
       </c>
       <c r="B41">
-        <v>-0.0928248769977419</v>
+        <v>-0.09282544431724951</v>
       </c>
       <c r="C41">
-        <v>-0.09577568684516843</v>
+        <v>-0.09426223705386517</v>
       </c>
       <c r="D41">
         <v>-0.09581085407801108</v>
@@ -6890,10 +6890,10 @@
         <v>0.063051911</v>
       </c>
       <c r="B42">
-        <v>-0.1495509610317816</v>
+        <v>-0.1495517829560956</v>
       </c>
       <c r="C42">
-        <v>-0.1522505730666921</v>
+        <v>-0.1530726106286517</v>
       </c>
       <c r="D42">
         <v>-0.1523011289222475</v>
@@ -7045,10 +7045,10 @@
         <v>0.693438741</v>
       </c>
       <c r="B43">
-        <v>0.4589941962536293</v>
+        <v>0.4589939903541277</v>
       </c>
       <c r="C43">
-        <v>0.5004411051222186</v>
+        <v>0.4830081750700919</v>
       </c>
       <c r="D43">
         <v>0.5005222962915689</v>
@@ -7200,10 +7200,10 @@
         <v>1.457632203</v>
       </c>
       <c r="B44">
-        <v>1.600817982974049</v>
+        <v>1.60081918723615</v>
       </c>
       <c r="C44">
-        <v>1.696216944052301</v>
+        <v>1.584039119972321</v>
       </c>
       <c r="D44">
         <v>1.69647333313871</v>
@@ -7355,10 +7355,10 @@
         <v>0.925767399</v>
       </c>
       <c r="B45">
-        <v>1.434617297918154</v>
+        <v>1.434617670197848</v>
       </c>
       <c r="C45">
-        <v>1.510027042445465</v>
+        <v>1.4370451094463</v>
       </c>
       <c r="D45">
         <v>1.510194079502353</v>
@@ -7510,10 +7510,10 @@
         <v>1.438674037</v>
       </c>
       <c r="B46">
-        <v>1.771030634539003</v>
+        <v>1.771031302988834</v>
       </c>
       <c r="C46">
-        <v>1.860050539546176</v>
+        <v>1.757580320307664</v>
       </c>
       <c r="D46">
         <v>1.860263422915727</v>
@@ -7665,10 +7665,10 @@
         <v>1.050844567</v>
       </c>
       <c r="B47">
-        <v>1.650269641103711</v>
+        <v>1.650270496723476</v>
       </c>
       <c r="C47">
-        <v>1.725471240410408</v>
+        <v>1.631117117347973</v>
       </c>
       <c r="D47">
         <v>1.725667958823987</v>
@@ -7820,10 +7820,10 @@
         <v>1.019025634</v>
       </c>
       <c r="B48">
-        <v>1.49572322814122</v>
+        <v>1.495722009208999</v>
       </c>
       <c r="C48">
-        <v>1.548373844078059</v>
+        <v>1.52485343305116</v>
       </c>
       <c r="D48">
         <v>1.548344819600526</v>
@@ -7975,10 +7975,10 @@
         <v>0.702825517</v>
       </c>
       <c r="B49">
-        <v>1.244000006207544</v>
+        <v>1.243998419644854</v>
       </c>
       <c r="C49">
-        <v>1.274570503409385</v>
+        <v>1.282242674837753</v>
       </c>
       <c r="D49">
         <v>1.274488384283657</v>
@@ -8130,10 +8130,10 @@
         <v>-0.07035459600000001</v>
       </c>
       <c r="B50">
-        <v>0.05808008099274108</v>
+        <v>0.05807985865553204</v>
       </c>
       <c r="C50">
-        <v>0.01430833242992366</v>
+        <v>0.07149476368145748</v>
       </c>
       <c r="D50">
         <v>0.01420141718888437</v>
@@ -8285,10 +8285,10 @@
         <v>-0.463687422</v>
       </c>
       <c r="B51">
-        <v>-0.4323117006218024</v>
+        <v>-0.432308909971404</v>
       </c>
       <c r="C51">
-        <v>-0.5437647357060953</v>
+        <v>-0.487301426527054</v>
       </c>
       <c r="D51">
         <v>-0.5438306824004576</v>
@@ -8440,10 +8440,10 @@
         <v>-1.238225604</v>
       </c>
       <c r="B52">
-        <v>-1.184584600309475</v>
+        <v>-1.184578371588953</v>
       </c>
       <c r="C52">
-        <v>-1.337065081587727</v>
+        <v>-1.341116351492245</v>
       </c>
       <c r="D52">
         <v>-1.336937086746494</v>
@@ -8595,10 +8595,10 @@
         <v>-0.60508294</v>
       </c>
       <c r="B53">
-        <v>-0.7558219893556997</v>
+        <v>-0.7558189017245551</v>
       </c>
       <c r="C53">
-        <v>-0.8721798434678179</v>
+        <v>-0.8217823434449576</v>
       </c>
       <c r="D53">
         <v>-0.8722165913496578</v>
@@ -8750,10 +8750,10 @@
         <v>-0.017287212</v>
       </c>
       <c r="B54">
-        <v>0.3400452266450942</v>
+        <v>0.3400443807311657</v>
       </c>
       <c r="C54">
-        <v>0.3141791545765056</v>
+        <v>0.3705013358754263</v>
       </c>
       <c r="D54">
         <v>0.3140476035783469</v>
@@ -8905,10 +8905,10 @@
         <v>0.400816827</v>
       </c>
       <c r="B55">
-        <v>0.7904596962341335</v>
+        <v>0.7904589334012961</v>
       </c>
       <c r="C55">
-        <v>0.8044154304218933</v>
+        <v>0.8080914315432328</v>
       </c>
       <c r="D55">
         <v>0.8043930533838786</v>
@@ -9060,10 +9060,10 @@
         <v>1.139826615</v>
       </c>
       <c r="B56">
-        <v>1.36215536131657</v>
+        <v>1.362154809056104</v>
       </c>
       <c r="C56">
-        <v>1.381914123149979</v>
+        <v>1.362849758975518</v>
       </c>
       <c r="D56">
         <v>1.381892689458336</v>
@@ -9215,10 +9215,10 @@
         <v>1.216172342</v>
       </c>
       <c r="B57">
-        <v>1.542674848678994</v>
+        <v>1.542674401220583</v>
       </c>
       <c r="C57">
-        <v>1.57934367018548</v>
+        <v>1.5402188933906</v>
       </c>
       <c r="D57">
         <v>1.579376123567057</v>
@@ -9370,10 +9370,10 @@
         <v>1.317836986</v>
       </c>
       <c r="B58">
-        <v>1.398920774118452</v>
+        <v>1.398919740133045</v>
       </c>
       <c r="C58">
-        <v>1.452556751389685</v>
+        <v>1.422015838492749</v>
       </c>
       <c r="D58">
         <v>1.452580408003799</v>
@@ -9525,10 +9525,10 @@
         <v>1.016928937</v>
       </c>
       <c r="B59">
-        <v>1.132250807525669</v>
+        <v>1.132249796482149</v>
       </c>
       <c r="C59">
-        <v>1.16220592901471</v>
+        <v>1.154646399298826</v>
       </c>
       <c r="D59">
         <v>1.162186438174745</v>
@@ -9680,10 +9680,10 @@
         <v>0.845043648</v>
       </c>
       <c r="B60">
-        <v>1.067503621575623</v>
+        <v>1.067503806910117</v>
       </c>
       <c r="C60">
-        <v>1.088478579187033</v>
+        <v>1.061360716692289</v>
       </c>
       <c r="D60">
         <v>1.088531512864708</v>
@@ -9835,10 +9835,10 @@
         <v>0.6860601039999999</v>
       </c>
       <c r="B61">
-        <v>0.8287460527430375</v>
+        <v>0.8287452016898558</v>
       </c>
       <c r="C61">
-        <v>0.838090113997954</v>
+        <v>0.8492443720214478</v>
       </c>
       <c r="D61">
         <v>0.8380515583937109</v>
@@ -9990,10 +9990,10 @@
         <v>-0.019694092</v>
       </c>
       <c r="B62">
-        <v>0.2012854784018543</v>
+        <v>0.201285112504572</v>
       </c>
       <c r="C62">
-        <v>0.1783851086318992</v>
+        <v>0.1612311282031149</v>
       </c>
       <c r="D62">
         <v>0.1783398632877857</v>
@@ -10145,10 +10145,10 @@
         <v>-0.366212842</v>
       </c>
       <c r="B63">
-        <v>-0.08160369114437603</v>
+        <v>-0.08160403939242709</v>
       </c>
       <c r="C63">
-        <v>-0.1080903044866552</v>
+        <v>-0.07435646118310499</v>
       </c>
       <c r="D63">
         <v>-0.1081480461281979</v>
@@ -10300,10 +10300,10 @@
         <v>1.5856655</v>
       </c>
       <c r="B64">
-        <v>1.514871907821017</v>
+        <v>1.514872843969802</v>
       </c>
       <c r="C64">
-        <v>1.621111521398118</v>
+        <v>1.51422604405872</v>
       </c>
       <c r="D64">
         <v>1.621371011605992</v>
@@ -10455,10 +10455,10 @@
         <v>1.886598222</v>
       </c>
       <c r="B65">
-        <v>1.649381681260341</v>
+        <v>1.649383586079001</v>
       </c>
       <c r="C65">
-        <v>1.767952460398973</v>
+        <v>1.631928019230036</v>
       </c>
       <c r="D65">
         <v>1.768291979333513</v>
@@ -10610,10 +10610,10 @@
         <v>2.355489398</v>
       </c>
       <c r="B66">
-        <v>1.824340562251064</v>
+        <v>1.82434254001413</v>
       </c>
       <c r="C66">
-        <v>1.91937636402964</v>
+        <v>1.800345646651132</v>
       </c>
       <c r="D66">
         <v>1.919669420466165</v>
@@ -10765,10 +10765,10 @@
         <v>2.175336124</v>
       </c>
       <c r="B67">
-        <v>1.681026665664158</v>
+        <v>1.681029272085753</v>
       </c>
       <c r="C67">
-        <v>1.755801999538396</v>
+        <v>1.635104317399433</v>
       </c>
       <c r="D67">
         <v>1.756107049479743</v>
@@ -10920,10 +10920,10 @@
         <v>2.193614808</v>
       </c>
       <c r="B68">
-        <v>1.511274687917823</v>
+        <v>1.5112772065172</v>
       </c>
       <c r="C68">
-        <v>1.561170556903908</v>
+        <v>1.461939270463121</v>
       </c>
       <c r="D68">
         <v>1.561430209736228</v>
@@ -11075,10 +11075,10 @@
         <v>2.430700245</v>
       </c>
       <c r="B69">
-        <v>1.7093141236953</v>
+        <v>1.709318097798646</v>
       </c>
       <c r="C69">
-        <v>1.7643856410748</v>
+        <v>1.624018782102807</v>
       </c>
       <c r="D69">
         <v>1.764762177725598</v>
@@ -11230,10 +11230,10 @@
         <v>0.607910564</v>
       </c>
       <c r="B70">
-        <v>0.2990881555438788</v>
+        <v>0.2990884941600861</v>
       </c>
       <c r="C70">
-        <v>0.2922697999951356</v>
+        <v>0.2765090213695335</v>
       </c>
       <c r="D70">
         <v>0.292269792830107</v>
@@ -11385,10 +11385,10 @@
         <v>1.103132367</v>
       </c>
       <c r="B71">
-        <v>0.5238202334222519</v>
+        <v>0.5238199367127763</v>
       </c>
       <c r="C71">
-        <v>0.5192917697348967</v>
+        <v>0.6215068371628546</v>
       </c>
       <c r="D71">
         <v>0.5192609212217683</v>
@@ -11540,10 +11540,10 @@
         <v>0.726620534</v>
       </c>
       <c r="B72">
-        <v>0.2883862772385556</v>
+        <v>0.2883853932213481</v>
       </c>
       <c r="C72">
-        <v>0.275919234140768</v>
+        <v>0.3198176377544111</v>
       </c>
       <c r="D72">
         <v>0.2758363088395553</v>
@@ -11695,10 +11695,10 @@
         <v>0.661591042</v>
       </c>
       <c r="B73">
-        <v>0.3058964180811183</v>
+        <v>0.3058953550214007</v>
       </c>
       <c r="C73">
-        <v>0.2971497831395111</v>
+        <v>0.3433460041367495</v>
       </c>
       <c r="D73">
         <v>0.2970662120493637</v>
@@ -11850,10 +11850,10 @@
         <v>0.815347372</v>
       </c>
       <c r="B74">
-        <v>0.4804768877047543</v>
+        <v>0.4804755682142277</v>
       </c>
       <c r="C74">
-        <v>0.476511407683663</v>
+        <v>0.5251050298009438</v>
       </c>
       <c r="D74">
         <v>0.4764059089169682</v>
@@ -12005,10 +12005,10 @@
         <v>0.370963237</v>
       </c>
       <c r="B75">
-        <v>0.1975597090255214</v>
+        <v>0.1975584149917575</v>
       </c>
       <c r="C75">
-        <v>0.1698406960885004</v>
+        <v>0.2434352367629462</v>
       </c>
       <c r="D75">
         <v>0.1696931642153111</v>
@@ -12160,10 +12160,10 @@
         <v>0.75714769</v>
       </c>
       <c r="B76">
-        <v>0.4435904511391774</v>
+        <v>0.4435884244423625</v>
       </c>
       <c r="C76">
-        <v>0.3980450904313999</v>
+        <v>0.4993139018506486</v>
       </c>
       <c r="D76">
         <v>0.3977856203703068</v>
@@ -12315,10 +12315,10 @@
         <v>0.130291626</v>
       </c>
       <c r="B77">
-        <v>-0.1910865744949447</v>
+        <v>-0.19108595471986</v>
       </c>
       <c r="C77">
-        <v>-0.2526931930959564</v>
+        <v>-0.1946142526251225</v>
       </c>
       <c r="D77">
         <v>-0.2527800671236824</v>
@@ -12470,10 +12470,10 @@
         <v>-0.109629176</v>
       </c>
       <c r="B78">
-        <v>-0.2949783148781547</v>
+        <v>-0.2949785124108306</v>
       </c>
       <c r="C78">
-        <v>-0.3168700854570121</v>
+        <v>-0.2946201128659857</v>
       </c>
       <c r="D78">
         <v>-0.316909117964922</v>
@@ -12625,10 +12625,10 @@
         <v>0.913137665</v>
       </c>
       <c r="B79">
-        <v>0.6086268399203871</v>
+        <v>0.6086267616050165</v>
       </c>
       <c r="C79">
-        <v>0.6108380207308286</v>
+        <v>0.6236242721688916</v>
       </c>
       <c r="D79">
         <v>0.6108411628476323</v>
@@ -12780,10 +12780,10 @@
         <v>0.9945061630000001</v>
       </c>
       <c r="B80">
-        <v>0.7126362499945071</v>
+        <v>0.7126368462067452</v>
       </c>
       <c r="C80">
-        <v>0.7109834533405883</v>
+        <v>0.7591380337070708</v>
       </c>
       <c r="D80">
         <v>0.7110110578190305</v>
@@ -12935,10 +12935,10 @@
         <v>1.203316887</v>
       </c>
       <c r="B81">
-        <v>1.498726945342301</v>
+        <v>1.498730542981414</v>
       </c>
       <c r="C81">
-        <v>1.527175274506349</v>
+        <v>0.8427213577469657</v>
       </c>
       <c r="D81">
         <v>1.527510105453269</v>
@@ -13090,10 +13090,10 @@
         <v>0.382738146</v>
       </c>
       <c r="B82">
-        <v>0.1232987112776501</v>
+        <v>0.1232999036906005</v>
       </c>
       <c r="C82">
-        <v>0.06250942124225112</v>
+        <v>0.07827643072432054</v>
       </c>
       <c r="D82">
         <v>0.06240220852018495</v>
@@ -13245,10 +13245,10 @@
         <v>1.084617502</v>
       </c>
       <c r="B83">
-        <v>0.9311606668348902</v>
+        <v>0.9311648860464525</v>
       </c>
       <c r="C83">
-        <v>0.8858527000734617</v>
+        <v>0.8113781580617371</v>
       </c>
       <c r="D83">
         <v>0.8859854839378078</v>
@@ -13400,10 +13400,10 @@
         <v>0.465588453</v>
       </c>
       <c r="B84">
-        <v>0.3923957943367222</v>
+        <v>0.3923992313697344</v>
       </c>
       <c r="C84">
-        <v>0.2998544248217063</v>
+        <v>0.280167623417605</v>
       </c>
       <c r="D84">
         <v>0.299793055076194</v>
@@ -13555,10 +13555,10 @@
         <v>-0.594869934</v>
       </c>
       <c r="B85">
-        <v>-0.740355545139179</v>
+        <v>-0.7403567589965319</v>
       </c>
       <c r="C85">
-        <v>-0.8821068072165699</v>
+        <v>-0.7303927659250204</v>
       </c>
       <c r="D85">
         <v>-0.882624632671392</v>
@@ -13710,10 +13710,10 @@
         <v>-0.876294891</v>
       </c>
       <c r="B86">
-        <v>-1.107311306257839</v>
+        <v>-1.107314091303551</v>
       </c>
       <c r="C86">
-        <v>-1.256875617026194</v>
+        <v>-1.055511842031063</v>
       </c>
       <c r="D86">
         <v>-1.25751386366656</v>
@@ -13865,10 +13865,10 @@
         <v>-1.298027516</v>
       </c>
       <c r="B87">
-        <v>-1.558818785125294</v>
+        <v>-1.558822828880182</v>
       </c>
       <c r="C87">
-        <v>-1.755202166650332</v>
+        <v>-1.47090743326283</v>
       </c>
       <c r="D87">
         <v>-1.756062129457552</v>
@@ -14020,10 +14020,10 @@
         <v>-1.033099513</v>
       </c>
       <c r="B88">
-        <v>-0.8958144239954224</v>
+        <v>-0.8958167898642335</v>
       </c>
       <c r="C88">
-        <v>-1.024116800236603</v>
+        <v>-0.8536078719302608</v>
       </c>
       <c r="D88">
         <v>-1.024665799828253</v>
@@ -14175,10 +14175,10 @@
         <v>-1.477734207</v>
       </c>
       <c r="B89">
-        <v>-1.929689084615551</v>
+        <v>-1.9296946027612</v>
       </c>
       <c r="C89">
-        <v>-2.050864372412441</v>
+        <v>-1.366460049803755</v>
       </c>
       <c r="D89">
         <v>-2.051666779018059</v>
@@ -14330,10 +14330,10 @@
         <v>0.138019302</v>
       </c>
       <c r="B90">
-        <v>-0.2936634581289411</v>
+        <v>-0.2936629426029391</v>
       </c>
       <c r="C90">
-        <v>-0.4074260183370915</v>
+        <v>-0.3173117695066338</v>
       </c>
       <c r="D90">
         <v>-0.4077483023274974</v>
@@ -14485,10 +14485,10 @@
         <v>0.386052651</v>
       </c>
       <c r="B91">
-        <v>0.02556491691546905</v>
+        <v>0.02556725633129865</v>
       </c>
       <c r="C91">
-        <v>-0.1039804510617893</v>
+        <v>-0.05604564719544915</v>
       </c>
       <c r="D91">
         <v>-0.1042353307760504</v>
@@ -14640,10 +14640,10 @@
         <v>0.50370249</v>
       </c>
       <c r="B92">
-        <v>0.1660564513834113</v>
+        <v>0.1660597167340311</v>
       </c>
       <c r="C92">
-        <v>0.0291765723971659</v>
+        <v>0.05542351499587674</v>
       </c>
       <c r="D92">
         <v>0.02895922183737748</v>
@@ -14795,10 +14795,10 @@
         <v>0.997029061</v>
       </c>
       <c r="B93">
-        <v>0.5184158128936622</v>
+        <v>0.5184203192193579</v>
       </c>
       <c r="C93">
-        <v>0.4093273888615442</v>
+        <v>0.376044736801625</v>
       </c>
       <c r="D93">
         <v>0.4092844585959471</v>
@@ -14950,10 +14950,10 @@
         <v>1.133239879</v>
       </c>
       <c r="B94">
-        <v>0.620313042125235</v>
+        <v>0.6203177511991185</v>
       </c>
       <c r="C94">
-        <v>0.5208170031564465</v>
+        <v>0.4754454228383177</v>
       </c>
       <c r="D94">
         <v>0.5208183133665727</v>
@@ -15105,10 +15105,10 @@
         <v>0.747303563</v>
       </c>
       <c r="B95">
-        <v>0.2788274618295635</v>
+        <v>0.2788308301358553</v>
       </c>
       <c r="C95">
-        <v>0.1626267306204303</v>
+        <v>0.1650977595980936</v>
       </c>
       <c r="D95">
         <v>0.1624853840260198</v>
@@ -15260,10 +15260,10 @@
         <v>-0.324059974</v>
       </c>
       <c r="B96">
-        <v>-0.5551837719771866</v>
+        <v>-0.55518405037536</v>
       </c>
       <c r="C96">
-        <v>-0.7018486621995401</v>
+        <v>-0.5758219396858522</v>
       </c>
       <c r="D96">
         <v>-0.7023258392196975</v>
@@ -15415,10 +15415,10 @@
         <v>-0.318834909</v>
       </c>
       <c r="B97">
-        <v>-0.4357695640292151</v>
+        <v>-0.4357697933610947</v>
       </c>
       <c r="C97">
-        <v>-0.5604496960679151</v>
+        <v>-0.4514338840564207</v>
       </c>
       <c r="D97">
         <v>-0.5608523290243236</v>
@@ -15570,10 +15570,10 @@
         <v>-0.489685706</v>
       </c>
       <c r="B98">
-        <v>-0.5787572217317267</v>
+        <v>-0.5787583656849906</v>
       </c>
       <c r="C98">
-        <v>-0.69596357433937</v>
+        <v>-0.571318613401244</v>
       </c>
       <c r="D98">
         <v>-0.6964002095795054</v>
@@ -15725,10 +15725,10 @@
         <v>-1.24440553</v>
       </c>
       <c r="B99">
-        <v>-1.128271123592517</v>
+        <v>-1.12827397645202</v>
       </c>
       <c r="C99">
-        <v>-1.292553191158403</v>
+        <v>-1.077652493856757</v>
       </c>
       <c r="D99">
         <v>-1.293242133430642</v>
@@ -15880,10 +15880,10 @@
         <v>-1.29987206</v>
       </c>
       <c r="B100">
-        <v>-0.8515097031565029</v>
+        <v>-0.8515119315321282</v>
       </c>
       <c r="C100">
-        <v>-0.9766273661802822</v>
+        <v>-0.812748165032388</v>
       </c>
       <c r="D100">
         <v>-0.977157937646562</v>
@@ -16035,10 +16035,10 @@
         <v>-1.103062627</v>
       </c>
       <c r="B101">
-        <v>-0.6257144460292183</v>
+        <v>-0.6257156803240729</v>
       </c>
       <c r="C101">
-        <v>-0.7297406775992299</v>
+        <v>-0.6043761319684497</v>
       </c>
       <c r="D101">
         <v>-0.7301419666727696</v>
@@ -16190,10 +16190,10 @@
         <v>-2.173105618</v>
       </c>
       <c r="B102">
-        <v>-1.297391139312546</v>
+        <v>-1.297393686544442</v>
       </c>
       <c r="C102">
-        <v>-1.430278868331817</v>
+        <v>-1.104681766108969</v>
       </c>
       <c r="D102">
         <v>-1.43088165254255</v>
@@ -16345,10 +16345,10 @@
         <v>-2.350437111</v>
       </c>
       <c r="B103">
-        <v>-1.706012127489593</v>
+        <v>-1.706014856752959</v>
       </c>
       <c r="C103">
-        <v>-1.917477337232363</v>
+        <v>-1.705441847070862</v>
       </c>
       <c r="D103">
         <v>-1.918319617693111</v>
@@ -16500,10 +16500,10 @@
         <v>-2.424850206</v>
       </c>
       <c r="B104">
-        <v>-1.985380348515313</v>
+        <v>-1.985383986271142</v>
       </c>
       <c r="C104">
-        <v>-2.249854132581188</v>
+        <v>-1.970464151781258</v>
       </c>
       <c r="D104">
         <v>-2.250948935617229</v>
@@ -16655,10 +16655,10 @@
         <v>-1.306491488</v>
       </c>
       <c r="B105">
-        <v>-1.37356660690595</v>
+        <v>-1.373568507536389</v>
       </c>
       <c r="C105">
-        <v>-1.58122723113393</v>
+        <v>-1.390481477046013</v>
       </c>
       <c r="D105">
         <v>-1.582029910597058</v>
@@ -16810,10 +16810,10 @@
         <v>-1.203195314</v>
       </c>
       <c r="B106">
-        <v>-1.513838251588104</v>
+        <v>-1.513840716441974</v>
       </c>
       <c r="C106">
-        <v>-1.688620703261448</v>
+        <v>-1.516808794482312</v>
       </c>
       <c r="D106">
         <v>-1.689345448965263</v>
@@ -16965,10 +16965,10 @@
         <v>-0.242662172</v>
       </c>
       <c r="B107">
-        <v>-0.8094490401693546</v>
+        <v>-0.8094497889129049</v>
       </c>
       <c r="C107">
-        <v>-0.9599429860839501</v>
+        <v>-0.7601023612660786</v>
       </c>
       <c r="D107">
         <v>-0.9604797030195051</v>
@@ -17120,10 +17120,10 @@
         <v>0.88970951</v>
       </c>
       <c r="B108">
-        <v>0.6674821146765879</v>
+        <v>0.6674867996662217</v>
       </c>
       <c r="C108">
-        <v>0.589390154699454</v>
+        <v>0.5261332001518829</v>
       </c>
       <c r="D108">
         <v>0.5894570674493061</v>
@@ -17275,10 +17275,10 @@
         <v>0.928446632</v>
       </c>
       <c r="B109">
-        <v>0.8601045383259722</v>
+        <v>0.8601097530084123</v>
       </c>
       <c r="C109">
-        <v>0.8002685304879396</v>
+        <v>0.715026858602251</v>
       </c>
       <c r="D109">
         <v>0.8004192907339522</v>
@@ -17430,10 +17430,10 @@
         <v>1.465487602</v>
       </c>
       <c r="B110">
-        <v>1.212751302853455</v>
+        <v>1.212757705769374</v>
       </c>
       <c r="C110">
-        <v>1.188777856111697</v>
+        <v>1.043363399207217</v>
       </c>
       <c r="D110">
         <v>1.18910664984369</v>
@@ -17585,10 +17585,10 @@
         <v>1.784585844</v>
       </c>
       <c r="B111">
-        <v>2.115479588574178</v>
+        <v>2.115490318796392</v>
       </c>
       <c r="C111">
-        <v>2.124614795629115</v>
+        <v>1.759094086422345</v>
       </c>
       <c r="D111">
         <v>2.125323599281491</v>
@@ -17740,10 +17740,10 @@
         <v>1.858495744</v>
       </c>
       <c r="B112">
-        <v>2.184612182503895</v>
+        <v>2.18462110288529</v>
       </c>
       <c r="C112">
-        <v>2.229324129994747</v>
+        <v>1.986288913202365</v>
       </c>
       <c r="D112">
         <v>2.229998684279606</v>
@@ -17895,10 +17895,10 @@
         <v>1.493374882</v>
       </c>
       <c r="B113">
-        <v>1.75787395808177</v>
+        <v>1.757881134621711</v>
       </c>
       <c r="C113">
-        <v>1.766076315690105</v>
+        <v>1.633793595470636</v>
       </c>
       <c r="D113">
         <v>1.766535914322721</v>
@@ -18050,10 +18050,10 @@
         <v>1.412473281</v>
       </c>
       <c r="B114">
-        <v>1.588892502301728</v>
+        <v>1.588900671000401</v>
       </c>
       <c r="C114">
-        <v>1.523540610636881</v>
+        <v>1.364566122227166</v>
       </c>
       <c r="D114">
         <v>1.523872241648574</v>
@@ -18205,10 +18205,10 @@
         <v>1.659878719</v>
       </c>
       <c r="B115">
-        <v>1.891786294747202</v>
+        <v>1.891797335901569</v>
       </c>
       <c r="C115">
-        <v>1.815455981580389</v>
+        <v>1.593417786594298</v>
       </c>
       <c r="D115">
         <v>1.815958663152081</v>
@@ -18360,10 +18360,10 @@
         <v>1.179616332</v>
       </c>
       <c r="B116">
-        <v>2.193868495582786</v>
+        <v>2.193881212842823</v>
       </c>
       <c r="C116">
-        <v>2.137418528225388</v>
+        <v>1.851088895248443</v>
       </c>
       <c r="D116">
         <v>2.138098147365357</v>
@@ -18515,10 +18515,10 @@
         <v>1.233273608</v>
       </c>
       <c r="B117">
-        <v>1.734484149650237</v>
+        <v>1.734494466156606</v>
       </c>
       <c r="C117">
-        <v>1.678399000258416</v>
+        <v>1.452977778853456</v>
       </c>
       <c r="D117">
         <v>1.678918704836814</v>
@@ -18670,10 +18670,10 @@
         <v>0.743599215</v>
       </c>
       <c r="B118">
-        <v>1.255177304105299</v>
+        <v>1.255185073146339</v>
       </c>
       <c r="C118">
-        <v>1.173024550463809</v>
+        <v>1.036845176392142</v>
       </c>
       <c r="D118">
         <v>1.17328941252976</v>
@@ -18825,10 +18825,10 @@
         <v>1.229907731</v>
       </c>
       <c r="B119">
-        <v>1.335479664372296</v>
+        <v>1.335488400237109</v>
       </c>
       <c r="C119">
-        <v>1.254915571052263</v>
+        <v>1.093629762597794</v>
       </c>
       <c r="D119">
         <v>1.255250281168253</v>
@@ -18980,10 +18980,10 @@
         <v>2.403226273</v>
       </c>
       <c r="B120">
-        <v>2.383990773814525</v>
+        <v>2.384004802768231</v>
       </c>
       <c r="C120">
-        <v>2.383923115321501</v>
+        <v>2.008264512686049</v>
       </c>
       <c r="D120">
         <v>2.384861049592378</v>
@@ -19135,10 +19135,10 @@
         <v>2.059121985</v>
       </c>
       <c r="B121">
-        <v>2.177062896251821</v>
+        <v>2.177075519899469</v>
       </c>
       <c r="C121">
-        <v>2.17149987898471</v>
+        <v>1.839063954208887</v>
       </c>
       <c r="D121">
         <v>2.172310479753909</v>
@@ -19290,10 +19290,10 @@
         <v>1.874258274</v>
       </c>
       <c r="B122">
-        <v>1.862924328709657</v>
+        <v>1.862934139124158</v>
       </c>
       <c r="C122">
-        <v>1.867483956875813</v>
+        <v>1.59875996214536</v>
       </c>
       <c r="D122">
         <v>1.868120658757924</v>
@@ -19445,10 +19445,10 @@
         <v>1.208393848</v>
       </c>
       <c r="B123">
-        <v>1.398577779630754</v>
+        <v>1.398584981181188</v>
       </c>
       <c r="C123">
-        <v>1.378484678406971</v>
+        <v>1.208731343050896</v>
       </c>
       <c r="D123">
         <v>1.378871672447911</v>
@@ -19600,10 +19600,10 @@
         <v>1.542184756</v>
       </c>
       <c r="B124">
-        <v>1.601758014250813</v>
+        <v>1.601764539937131</v>
       </c>
       <c r="C124">
-        <v>1.617516954670142</v>
+        <v>1.365861844928343</v>
       </c>
       <c r="D124">
         <v>1.61796290309954</v>
@@ -19755,10 +19755,10 @@
         <v>1.314560082</v>
       </c>
       <c r="B125">
-        <v>1.553038397097029</v>
+        <v>1.553044655857542</v>
       </c>
       <c r="C125">
-        <v>1.551032457145072</v>
+        <v>1.32427516767688</v>
       </c>
       <c r="D125">
         <v>1.551411640649632</v>
@@ -19910,10 +19910,10 @@
         <v>-1.001923586</v>
       </c>
       <c r="B126">
-        <v>-0.7017930126111691</v>
+        <v>-0.7017937290690133</v>
       </c>
       <c r="C126">
-        <v>-0.8286012146131878</v>
+        <v>-0.6878085283320826</v>
       </c>
       <c r="D126">
         <v>-0.8290442436021271</v>
@@ -20065,10 +20065,10 @@
         <v>0.304133877</v>
       </c>
       <c r="B127">
-        <v>0.7282278594681595</v>
+        <v>0.7282331380830707</v>
       </c>
       <c r="C127">
-        <v>0.620835717265054</v>
+        <v>0.5749386973426083</v>
       </c>
       <c r="D127">
         <v>0.6208495129408123</v>
@@ -20220,10 +20220,10 @@
         <v>0.17850123</v>
       </c>
       <c r="B128">
-        <v>0.4119656274649539</v>
+        <v>0.4119699112607731</v>
       </c>
       <c r="C128">
-        <v>0.2857838588257401</v>
+        <v>0.2767206771640464</v>
       </c>
       <c r="D128">
         <v>0.2856705047951954</v>
@@ -20375,10 +20375,10 @@
         <v>1.063120745</v>
       </c>
       <c r="B129">
-        <v>1.069762283893919</v>
+        <v>1.069769279479081</v>
       </c>
       <c r="C129">
-        <v>0.9849918223941854</v>
+        <v>0.8683248649028115</v>
       </c>
       <c r="D129">
         <v>0.985196298421902</v>
@@ -20530,10 +20530,10 @@
         <v>0.464528379</v>
       </c>
       <c r="B130">
-        <v>0.6360170870708941</v>
+        <v>0.6360218672607079</v>
       </c>
       <c r="C130">
-        <v>0.5369601209162316</v>
+        <v>0.4894483221407623</v>
       </c>
       <c r="D130">
         <v>0.5369676826992225</v>
@@ -20685,10 +20685,10 @@
         <v>0.740267424</v>
       </c>
       <c r="B131">
-        <v>1.279623460910676</v>
+        <v>1.279631878801282</v>
       </c>
       <c r="C131">
-        <v>1.197299214480844</v>
+        <v>1.045443299900853</v>
       </c>
       <c r="D131">
         <v>1.197606751780914</v>
@@ -20840,10 +20840,10 @@
         <v>0.991836694</v>
       </c>
       <c r="B132">
-        <v>1.658289625005315</v>
+        <v>1.658299396526306</v>
       </c>
       <c r="C132">
-        <v>1.627566263287334</v>
+        <v>1.39471074261793</v>
       </c>
       <c r="D132">
         <v>1.628121773659758</v>
@@ -20995,10 +20995,10 @@
         <v>-0.037111578</v>
       </c>
       <c r="B133">
-        <v>0.632214950336587</v>
+        <v>0.6322190653877044</v>
       </c>
       <c r="C133">
-        <v>0.5618954969011234</v>
+        <v>0.5134621859815599</v>
       </c>
       <c r="D133">
         <v>0.5619417205103476</v>
@@ -21150,10 +21150,10 @@
         <v>0.623458544</v>
       </c>
       <c r="B134">
-        <v>0.9298563220913685</v>
+        <v>0.9298613418187613</v>
       </c>
       <c r="C134">
-        <v>0.8927241739272187</v>
+        <v>0.7945392051939837</v>
       </c>
       <c r="D134">
         <v>0.8929237190126688</v>
@@ -21305,10 +21305,10 @@
         <v>0.08882322099999999</v>
       </c>
       <c r="B135">
-        <v>0.659649457736887</v>
+        <v>0.6596532160956905</v>
       </c>
       <c r="C135">
-        <v>0.6047594402448198</v>
+        <v>0.5577298138701712</v>
       </c>
       <c r="D135">
         <v>0.6048183094598821</v>
@@ -21460,10 +21460,10 @@
         <v>0.116119944</v>
       </c>
       <c r="B136">
-        <v>0.3409241353351431</v>
+        <v>0.3409259352027295</v>
       </c>
       <c r="C136">
-        <v>0.2919531616739057</v>
+        <v>0.2882216350873175</v>
       </c>
       <c r="D136">
         <v>0.2919068696328302</v>
@@ -21615,10 +21615,10 @@
         <v>0.037484165</v>
       </c>
       <c r="B137">
-        <v>-0.1209510490220367</v>
+        <v>-0.1209507656913475</v>
       </c>
       <c r="C137">
-        <v>-0.1987797970409871</v>
+        <v>-0.1370424556057754</v>
       </c>
       <c r="D137">
         <v>-0.1990055130826836</v>
@@ -21770,10 +21770,10 @@
         <v>0.468701595</v>
       </c>
       <c r="B138">
-        <v>0.2581894592441199</v>
+        <v>0.2581918869926155</v>
       </c>
       <c r="C138">
-        <v>0.1606821354912253</v>
+        <v>0.1852220074236116</v>
       </c>
       <c r="D138">
         <v>0.1605348538933115</v>
